--- a/data/trans_bre/CONS_REC-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_REC-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,76</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,4%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>79,98%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>140,16%</t>
+          <t>149,52%</t>
         </is>
       </c>
     </row>
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-3,15; 2,05</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-1,54; 6,19</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-0,45; 4,91</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-79,74; 162,95</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,12; 12,63</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-21,61; 640,68</t>
+          <t>-44,29; 1637,87</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,4</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>4,98</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>280,07%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>376,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-89,8%</t>
+          <t>250,94%</t>
         </is>
       </c>
     </row>
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,34; 9,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,03; 6,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,02; -0,28</t>
+          <t>1,54; 9,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,64; 1082,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,54; 3961,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,11; 1036,71</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-10,89</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-46,52%</t>
+          <t>227,91%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,86%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>68,15%</t>
+          <t>167,07%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-47,87; 25,42</t>
+          <t>2,35; 7,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,82; 2,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 3,1</t>
+          <t>0,4; 6,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>66,46; 656,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,9; 274,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-70,97; 691,48</t>
+          <t>7,43; 629,38</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>117,29%</t>
+          <t>180,58%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>356,1%</t>
+          <t>393,08%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,35%</t>
+          <t>236,33%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 4,85</t>
+          <t>2,7; 7,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 5,55</t>
+          <t>2,14; 5,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 2,67</t>
+          <t>1,46; 6,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-67,49; 1041,2</t>
+          <t>67,03; 393,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>91,29; 1932,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-62,59; 275,33</t>
+          <t>31,01; 687,37</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,36</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,68</t>
+          <t>5,33</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>270,32%</t>
+          <t>89,41%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>557,78%</t>
+          <t>112,8%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>227,07%</t>
+          <t>290,97%</t>
         </is>
       </c>
     </row>
@@ -962,39 +962,39 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,08; 9,16</t>
+          <t>0,66; 5,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,7; 4,33</t>
+          <t>0,81; 7,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,81; 8,09</t>
+          <t>2,82; 8,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>38,83; 1142,29</t>
+          <t>10,2; 213,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-20,26; 7880,32</t>
+          <t>9,11; 309,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,65; 727,97</t>
+          <t>77,47; 962,35</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,31</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,08</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>165,43%</t>
+          <t>88,21%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>104,79%</t>
+          <t>17,25%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>202,21%</t>
+          <t>175,0%</t>
         </is>
       </c>
     </row>
@@ -1042,39 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,69; 6,29</t>
+          <t>1,67; 8,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 2,74</t>
+          <t>-4,02; 4,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,14; 6,18</t>
+          <t>2,85; 8,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,98; 623,58</t>
+          <t>22,89; 202,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-12,97; 459,66</t>
+          <t>-71,88; 174,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>64,29; 447,84</t>
+          <t>62,31; 410,09</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>9,92</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,71</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>246,37%</t>
+          <t>39,73%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>145,23%</t>
+          <t>604,6%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>202,21%</t>
+          <t>29,78%</t>
         </is>
       </c>
     </row>
@@ -1122,39 +1122,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,66; 6,26</t>
+          <t>0,12; 8,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,38; 4,7</t>
+          <t>6,57; 13,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,61; 6,91</t>
+          <t>-1,09; 6,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>51,23; 679,43</t>
+          <t>0,66; 89,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>39,64; 360,32</t>
+          <t>167,25; 2107,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>78,42; 400,89</t>
+          <t>-13,63; 105,79</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>4,53</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>4,22</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>258,5%</t>
+          <t>101,21%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>85,58%</t>
+          <t>182,19%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>65,06%</t>
+          <t>162,48%</t>
         </is>
       </c>
     </row>
@@ -1202,292 +1202,49 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,74; 8,64</t>
+          <t>3,42; 5,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,04; 5,33</t>
+          <t>1,78; 4,53</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,44; 4,69</t>
+          <t>3,09; 5,39</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>73,99; 740,45</t>
+          <t>66,69; 144,89</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>17,3; 191,73</t>
+          <t>82,61; 354,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,28; 152,58</t>
+          <t>100,19; 250,13</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>5,74</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>1,86</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>5,34</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>168,83%</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>56,11%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>118,14%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>2,82; 8,87</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-1,47; 4,36</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>2,73; 8,0</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>58,87; 367,1</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-27,83; 180,47</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>45,34; 228,91</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>2,86</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>7,39</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>4,07</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>34,9%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>206,01%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>37,79%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-1,15; 6,72</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>4,61; 10,39</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>0,5; 7,41</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-10,94; 103,57</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>87,76; 418,23</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>3,94; 85,17</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>4,17</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>3,03</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>3,81</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>127,96%</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>143,35%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>101,27%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>3,03; 5,35</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>2,12; 3,94</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>2,95; 4,77</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>81,8; 192,84</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>85,21; 221,54</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>71,51; 142,69</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="11">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/CONS_REC-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_REC-Edad-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-21,4%</t>
+          <t>-37,85%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 2,05</t>
+          <t>-3,51; 1,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 6,19</t>
+          <t>-1,53; 5,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-79,74; 162,95</t>
+          <t>-82,07; 118,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,4</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>280,07%</t>
+          <t>434,44%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,34; 9,24</t>
+          <t>2,29; 7,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 6,3</t>
+          <t>0,21; 6,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,64; 1082,87</t>
+          <t>87,28; 1290,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-31,54; 3961,12</t>
+          <t>-41,32; 5850,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,65</t>
+          <t>5,02</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>227,91%</t>
+          <t>285,2%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,35; 7,34</t>
+          <t>2,81; 7,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 2,51</t>
+          <t>-1,72; 2,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>66,46; 656,88</t>
+          <t>93,42; 706,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-55,9; 274,24</t>
+          <t>-57,44; 346,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,96</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>180,58%</t>
+          <t>123,99%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,7; 7,79</t>
+          <t>1,46; 5,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,14; 5,95</t>
+          <t>1,99; 5,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>67,03; 393,92</t>
+          <t>38,38; 275,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>91,29; 1932,82</t>
+          <t>80,56; 1759,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>89,41%</t>
+          <t>111,49%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 5,74</t>
+          <t>1,24; 5,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,81; 7,21</t>
+          <t>0,98; 7,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,2; 213,59</t>
+          <t>28,31; 260,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,11; 309,88</t>
+          <t>16,54; 322,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>3,99</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>88,21%</t>
+          <t>65,96%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,67; 8,21</t>
+          <t>1,11; 7,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 4,29</t>
+          <t>-4,34; 4,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>22,89; 202,95</t>
+          <t>12,74; 155,59</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-71,88; 174,34</t>
+          <t>-73,95; 187,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,84</t>
+          <t>6,3</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>39,73%</t>
+          <t>59,55%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,12; 8,82</t>
+          <t>2,66; 10,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,57; 13,59</t>
+          <t>6,8; 13,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,66; 89,11</t>
+          <t>21,53; 124,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>167,25; 2107,15</t>
+          <t>198,12; 2083,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>4,28</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>101,21%</t>
+          <t>109,98%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1202,12 +1202,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,42; 5,71</t>
+          <t>3,18; 5,31</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,78; 4,53</t>
+          <t>1,75; 4,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1217,12 +1217,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>66,69; 144,89</t>
+          <t>72,75; 152,27</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>82,61; 354,18</t>
+          <t>85,5; 343,94</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">

--- a/data/trans_bre/CONS_REC-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_REC-Edad-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2,06</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>-0,99</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,61</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,06</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>62,46%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>149,52%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>-37,85%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>79,98%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>149,52%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-1,39; 4,43</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-0,45; 4,91</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-3,51; 1,12</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,53; 5,33</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,45; 4,91</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-44,29; 1637,87</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>-82,07; 118,79</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-44,29; 1637,87</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>2,2</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4,98</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>4,55</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,11</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,98</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>98,86%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>250,94%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>434,44%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>376,92%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>250,94%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-1,3; 5,77</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1,54; 9,04</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>2,29; 7,57</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,21; 6,53</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,54; 9,04</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-45,06; —</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>26,11; 1036,71</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>87,28; 1290,26</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-41,32; 5850,21</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>26,11; 1036,71</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3,7</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>5,02</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,61</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,7</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>56,37%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>167,07%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>285,2%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>32,86%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>167,07%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-1,13; 2,71</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,4; 6,87</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>2,81; 7,42</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,72; 2,52</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,4; 6,87</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-48,64; 427,72</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>7,43; 629,38</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>93,42; 706,53</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-57,44; 346,6</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>7,43; 629,38</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>3,1</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3,65</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>3,43</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,83</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,65</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>176,97%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>236,33%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>123,99%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>393,08%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>236,33%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0,93; 4,99</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1,46; 6,07</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>1,46; 5,64</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1,99; 5,86</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>1,46; 6,07</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>9,89; 554,97</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>31,01; 687,37</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>38,38; 275,03</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>80,56; 1759,05</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>31,01; 687,37</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>4,48</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5,33</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>3,26</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>4,13</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>5,33</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>132,54%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>290,97%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>111,49%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>112,8%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>290,97%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>1,6; 7,45</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2,82; 8,31</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>1,24; 5,55</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,98; 7,14</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>2,82; 8,31</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>28,56; 366,29</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>77,47; 962,35</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>28,31; 260,03</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>16,54; 322,06</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>77,47; 962,35</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>3,7</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>5,61</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>3,99</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,53</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5,61</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>121,47%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>175,0%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>65,96%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>17,25%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>175,0%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>0,85; 6,82</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2,85; 8,75</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>1,11; 7,18</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-4,34; 4,51</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>2,85; 8,75</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>9,87; 391,51</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>62,31; 410,09</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>12,74; 155,59</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-73,95; 187,79</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>62,31; 410,09</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>9,41</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2,39</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>6,3</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>9,92</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>2,39</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>497,06%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>29,78%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>59,55%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>604,6%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>29,78%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>6,39; 13,49</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-1,09; 6,39</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>2,66; 10,26</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>6,8; 13,8</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-1,09; 6,39</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>161,55; 1711,63</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-13,63; 105,79</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>21,53; 124,94</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>198,12; 2083,85</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-13,63; 105,79</t>
         </is>
       </c>
     </row>
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>3,39</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4,22</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>4,28</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>3,2</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>4,22</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>161,0%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>162,48%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>109,98%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>182,19%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>162,48%</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>2,31; 4,43</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3,09; 5,39</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>3,18; 5,31</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>1,75; 4,32</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>3,09; 5,39</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>85,66; 275,22</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>100,19; 250,13</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>72,75; 152,27</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>85,5; 343,94</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>100,19; 250,13</t>
         </is>
       </c>
     </row>
